--- a/akuk_words.xlsx
+++ b/akuk_words.xlsx
@@ -422,10 +422,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -511,6 +511,51 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>aaei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.718282</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ehcatete</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>178613</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>actkai</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>eye</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/akuk_words.xlsx
+++ b/akuk_words.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -556,6 +556,66 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.451369</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ahouaikp</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>337</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iic</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
